--- a/Data/Metadata/Angiosperms/powo/Dilleniaceae.xlsx
+++ b/Data/Metadata/Angiosperms/powo/Dilleniaceae.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,61 +584,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Dilleniaceae</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mollinedia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>marqueteana</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Peixoto</t>
-        </is>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantae</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Mollinedia_marqueteana</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Species</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> &lt;b&gt;Location&lt;/b&gt;: &lt;em&gt;Brazil&lt;/em&gt;</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>/taxon/urn:lsid:ipni.org:names:60471289-2</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>urn:lsid:ipni.org:names:60471289-2</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
